--- a/data/trans_camb/P15_3-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15_3-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>3,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,44</t>
+          <t>20,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>21,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>23,59</t>
+          <t>21,32</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>13,35</t>
+          <t>13,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,98</t>
+          <t>20,93</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 9,45</t>
+          <t>-6,12; 13,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,38; 34,21</t>
+          <t>4,64; 37,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,01; 32,25</t>
+          <t>5,55; 38,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 7,99</t>
+          <t>-12,82; 13,27</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 18,41</t>
+          <t>-5,87; 22,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 40,4</t>
+          <t>4,81; 35,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 4,67</t>
+          <t>-7,55; 8,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 22,04</t>
+          <t>4,25; 25,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 30,47</t>
+          <t>8,88; 33,25</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,61%</t>
+          <t>107,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>248,46%</t>
+          <t>659,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>213,43%</t>
+          <t>709,03%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,37%</t>
+          <t>-4,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>81,72%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>208,33%</t>
+          <t>215,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-15,59%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>134,49%</t>
+          <t>192,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>201,33%</t>
+          <t>299,3%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,4; 299,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>47,09; 1158,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,2; 966,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,81; 221,58</t>
+          <t>-81,64; 474,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-38,62; 364,91</t>
+          <t>-53,78; 631,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>57,02; 814,5</t>
+          <t>8,62; 868,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,88; 84,76</t>
+          <t>-73,25; 331,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,96; 351,94</t>
+          <t>16,61; 831,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,61; 489,28</t>
+          <t>55,96; 1130,18</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,14</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,57</t>
+          <t>20,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,9</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,14</t>
+          <t>21,83</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-4,58</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,53</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>21,83</t>
+          <t>21,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,31; -0,16</t>
+          <t>-17,99; 2,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 22,98</t>
+          <t>-6,31; 26,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,5; 34,52</t>
+          <t>-1,01; 39,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 1,64</t>
+          <t>-10,26; 2,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 21,54</t>
+          <t>-0,11; 20,48</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 34,91</t>
+          <t>10,46; 35,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,68; -0,72</t>
+          <t>-11,07; 0,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 19,0</t>
+          <t>0,83; 18,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>13,11; 31,13</t>
+          <t>9,08; 32,47</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-72,63%</t>
+          <t>-64,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>150,99%</t>
+          <t>106,77%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>278,76%</t>
+          <t>225,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-64,82%</t>
+          <t>-63,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>185,4%</t>
+          <t>192,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>360,56%</t>
+          <t>433,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-68,85%</t>
+          <t>-64,16%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>167,51%</t>
+          <t>138,14%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>317,07%</t>
+          <t>299,64%</t>
         </is>
       </c>
     </row>
@@ -1007,17 +1007,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 52,59</t>
+          <t>-100,0; 181,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 679,69</t>
+          <t>-45,06; 578,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>55,43; 1023,03</t>
+          <t>-6,11; 911,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1027,27 +1027,27 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 855,73</t>
+          <t>-33,66; 1139,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,09; 1349,78</t>
+          <t>54,86; 1903,39</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-93,31; 17,84</t>
+          <t>-93,35; 53,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,93; 530,06</t>
+          <t>2,21; 494,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>116,99; 838,49</t>
+          <t>74,87; 833,78</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,88</t>
+          <t>27,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>8,26</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>18,68</t>
+          <t>18,77</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>7,95</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>19,02</t>
+          <t>22,13</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 4,27</t>
+          <t>-10,18; 4,24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 15,13</t>
+          <t>4,3; 28,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,53; 30,5</t>
+          <t>14,44; 40,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 5,89</t>
+          <t>-11,04; 9,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 17,37</t>
+          <t>-2,63; 19,86</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,96; 28,8</t>
+          <t>7,67; 31,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 3,1</t>
+          <t>-8,27; 5,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 13,97</t>
+          <t>3,66; 19,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>11,87; 26,03</t>
+          <t>12,54; 30,57</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-26,04%</t>
+          <t>-38,04%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>123,92%</t>
+          <t>332,91%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>323,07%</t>
+          <t>553,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-13,6%</t>
+          <t>-3,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>55,06%</t>
+          <t>52,87%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>122,63%</t>
+          <t>120,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-17,91%</t>
+          <t>-8,1%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>71,98%</t>
+          <t>100,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>172,28%</t>
+          <t>193,74%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-80,97; 164,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 450,58</t>
+          <t>9,1; 1644,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,52; 909,56</t>
+          <t>94,53; 2367,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,38; 58,37</t>
+          <t>-53,72; 87,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 157,14</t>
+          <t>-14,58; 186,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,56; 265,83</t>
+          <t>32,05; 280,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-52,99; 40,67</t>
+          <t>-57,25; 69,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,72; 164,93</t>
+          <t>24,04; 259,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>77,76; 306,02</t>
+          <t>80,09; 384,76</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-6,86</t>
+          <t>-6,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>11,6</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>20,65</t>
+          <t>20,73</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,42</t>
+          <t>-5,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,39</t>
+          <t>4,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>20,66</t>
+          <t>22,14</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-5,51</t>
+          <t>-5,92</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>7,68</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>20,66</t>
+          <t>21,48</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 0,11</t>
+          <t>-16,47; 2,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 20,5</t>
+          <t>-0,97; 23,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,82; 30,83</t>
+          <t>7,56; 33,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 1,8</t>
+          <t>-14,26; 3,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,36</t>
+          <t>-5,66; 14,36</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,16; 29,22</t>
+          <t>10,92; 33,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,14; -0,55</t>
+          <t>-12,08; 0,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,38; 15,26</t>
+          <t>0,12; 15,2</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,56; 27,25</t>
+          <t>12,75; 29,76</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-57,18%</t>
+          <t>-54,38%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>87,65%</t>
+          <t>90,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>172,18%</t>
+          <t>161,3%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-36,85%</t>
+          <t>-40,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>61,61%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>172,31%</t>
+          <t>177,46%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-45,92%</t>
+          <t>-46,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>73,39%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>172,25%</t>
+          <t>169,78%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-83,08; 21,18</t>
+          <t>-87,39; 54,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,56; 256,73</t>
+          <t>-9,98; 309,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>54,73; 401,08</t>
+          <t>35,94; 457,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-70,64; 23,01</t>
+          <t>-75,12; 66,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 174,12</t>
+          <t>-35,62; 184,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>71,92; 339,95</t>
+          <t>49,48; 434,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-67,51; -4,05</t>
+          <t>-73,6; 9,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,28; 165,38</t>
+          <t>-0,62; 167,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>87,58; 299,54</t>
+          <t>76,53; 335,87</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>11,53</t>
+          <t>14,81</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>26,37</t>
+          <t>26,95</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>14,14</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,02</t>
+          <t>29,28</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>12,76</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>27,17</t>
+          <t>27,96</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,04; 9,01</t>
+          <t>-6,67; 11,57</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,11; 20,34</t>
+          <t>3,77; 27,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,4; 36,61</t>
+          <t>14,57; 41,2</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 6,9</t>
+          <t>-15,39; 5,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,94; 24,48</t>
+          <t>-2,52; 24,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,53; 38,58</t>
+          <t>13,61; 43,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 5,65</t>
+          <t>-6,73; 6,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>6,47; 20,21</t>
+          <t>4,35; 21,73</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>19,73; 34,79</t>
+          <t>18,23; 37,87</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>34,16%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>157,18%</t>
+          <t>233,94%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>359,49%</t>
+          <t>425,76%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-11,1%</t>
+          <t>-39,7%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>161,45%</t>
+          <t>111,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>319,82%</t>
+          <t>305,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>159,0%</t>
+          <t>169,17%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>338,45%</t>
+          <t>361,95%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-50,8; 202,32</t>
+          <t>-71,91; 567,63</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>15,89; 444,65</t>
+          <t>17,09; 1226,98</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>119,01; 854,58</t>
+          <t>109,94; 1855,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-70,13; 160,92</t>
+          <t>-100,0; 141,4</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>30,68; 498,63</t>
+          <t>-28,24; 549,32</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>109,25; 801,92</t>
+          <t>64,21; 996,12</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 106,47</t>
+          <t>-64,24; 154,95</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>56,7; 387,4</t>
+          <t>31,03; 480,79</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>171,96; 663,85</t>
+          <t>147,79; 896,33</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>1,03</t>
+          <t>-2,8</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>21,03</t>
+          <t>27,78</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>6,67</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>11,44</t>
+          <t>16,08</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7,5</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>21,32</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 9,98</t>
+          <t>-13,47; 4,89</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 19,69</t>
+          <t>-0,6; 26,45</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,47; 31,0</t>
+          <t>11,56; 44,25</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 9,6</t>
+          <t>-11,89; 2,1</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 15,92</t>
+          <t>-2,19; 17,99</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,17; 21,51</t>
+          <t>3,75; 30,41</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 6,82</t>
+          <t>-8,74; 2,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>1,04; 14,81</t>
+          <t>0,26; 17,89</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>7,28; 23,2</t>
+          <t>11,57; 32,52</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>12,79%</t>
+          <t>-53,13%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>109,28%</t>
+          <t>215,15%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>260,78%</t>
+          <t>526,33%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>-52,22%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>112,89%</t>
+          <t>160,17%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>193,63%</t>
+          <t>400,92%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>16,59%</t>
+          <t>-52,88%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>109,19%</t>
+          <t>188,59%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>221,13%</t>
+          <t>464,5%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-66,53; 309,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-14,49; 538,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>42,83; 782,1</t>
+          <t>49,3; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-77,92; 461,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,5; 709,18</t>
+          <t>-76,98; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 881,97</t>
+          <t>-28,31; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-47,74; 186,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2,93; 388,58</t>
+          <t>-8,92; 1100,61</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>73,74; 585,01</t>
+          <t>103,43; 2290,21</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>11,59</t>
+          <t>13,76</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>20,71</t>
+          <t>23,61</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>8,94</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>20,34</t>
+          <t>21,03</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-2,53</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>10,19</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>20,48</t>
+          <t>22,22</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 0,75</t>
+          <t>-6,26; 0,71</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>7,53; 15,88</t>
+          <t>8,52; 19,7</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>16,18; 25,61</t>
+          <t>16,93; 29,74</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 1,17</t>
+          <t>-6,74; 1,58</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,87; 12,7</t>
+          <t>2,03; 12,43</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,68; 25,04</t>
+          <t>15,64; 26,44</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-4,67; -0,34</t>
+          <t>-5,42; 0,28</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>7,35; 13,28</t>
+          <t>7,1; 14,52</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>17,02; 23,8</t>
+          <t>18,12; 26,6</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-26,37%</t>
+          <t>-33,77%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>140,26%</t>
+          <t>183,31%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>250,59%</t>
+          <t>314,56%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-22,11%</t>
+          <t>-24,48%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>86,42%</t>
+          <t>73,53%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>196,55%</t>
+          <t>202,64%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-23,96%</t>
+          <t>-27,98%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>108,67%</t>
+          <t>116,32%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>218,41%</t>
+          <t>245,79%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-53,22; 11,47</t>
+          <t>-64,01; 15,11</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>75,1; 234,77</t>
+          <t>85,74; 346,45</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>160,24; 386,99</t>
+          <t>173,14; 538,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-44,39; 13,59</t>
+          <t>-52,71; 20,47</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>43,21; 148,19</t>
+          <t>16,22; 153,09</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>134,28; 301,27</t>
+          <t>115,78; 316,04</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-43,9; -4,04</t>
+          <t>-50,75; 5,01</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>70,6; 162,66</t>
+          <t>64,98; 189,28</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>159,66; 295,8</t>
+          <t>164,57; 346,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
